--- a/entry.xlsx
+++ b/entry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1775,6 +1775,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>LEADERSHIP</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>engname</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>이름</t>
+        </is>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/entry.xlsx
+++ b/entry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1775,26 +1775,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>LEADERSHIP</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>engname</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>이름</t>
-        </is>
-      </c>
-      <c r="D68" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
